--- a/validate.xlsx
+++ b/validate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="181">
   <si>
     <t xml:space="preserve">4.16-4.20</t>
   </si>
@@ -68615,8 +68615,8 @@
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -68635,6 +68635,9 @@
       <c r="B1" s="36" t="s">
         <v>91</v>
       </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D1" s="0" t="s">
         <v>92</v>
       </c>
@@ -68649,6 +68652,9 @@
       <c r="B2" s="36" t="s">
         <v>91</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D2" s="0" t="s">
         <v>91</v>
       </c>
@@ -68671,6 +68677,9 @@
       <c r="B3" s="36" t="s">
         <v>91</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" s="0" t="s">
         <v>95</v>
       </c>
@@ -68693,6 +68702,9 @@
       <c r="B4" s="36" t="s">
         <v>91</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="0" t="s">
         <v>97</v>
       </c>
@@ -68715,6 +68727,9 @@
       <c r="B5" s="36" t="s">
         <v>91</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" s="0" t="s">
         <v>99</v>
       </c>
@@ -68734,6 +68749,12 @@
       <c r="A6" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D6" s="0" t="s">
         <v>101</v>
       </c>
@@ -68753,6 +68774,12 @@
       <c r="A7" s="0" t="s">
         <v>102</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D7" s="0" t="s">
         <v>103</v>
       </c>
@@ -68772,6 +68799,12 @@
       <c r="A8" s="0" t="s">
         <v>104</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D8" s="0" t="s">
         <v>105</v>
       </c>
@@ -68791,6 +68824,12 @@
       <c r="A9" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D9" s="0" t="s">
         <v>107</v>
       </c>
@@ -68810,6 +68849,12 @@
       <c r="A10" s="0" t="s">
         <v>108</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" s="0" t="s">
         <v>109</v>
       </c>
@@ -68829,6 +68874,12 @@
       <c r="A11" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="D11" s="0" t="s">
         <v>111</v>
       </c>
@@ -68848,6 +68899,12 @@
       <c r="A12" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="D12" s="0" t="s">
         <v>113</v>
       </c>
@@ -68867,6 +68924,12 @@
       <c r="A13" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="D13" s="0" t="s">
         <v>115</v>
       </c>
@@ -68886,6 +68949,12 @@
       <c r="A14" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="D14" s="0" t="s">
         <v>117</v>
       </c>
@@ -68905,6 +68974,12 @@
       <c r="A15" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="D15" s="0" t="s">
         <v>119</v>
       </c>
@@ -68923,6 +68998,12 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>120</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>121</v>
@@ -68936,299 +69017,653 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>180</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
